--- a/REGULAR/OJT/NEW DONE/DELFINO, NIÑA.xlsx
+++ b/REGULAR/OJT/NEW DONE/DELFINO, NIÑA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="193">
   <si>
     <t>PERIOD</t>
   </si>
@@ -618,6 +618,9 @@
   </si>
   <si>
     <t>10/22,24,26,27/2022</t>
+  </si>
+  <si>
+    <t>3/1-4,6,7/2023</t>
   </si>
 </sst>
 </file>
@@ -1480,7 +1483,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1523,7 +1526,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1587,7 +1590,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1647,7 +1650,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1713,7 +1716,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1776,7 +1779,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1874,7 +1877,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1933,7 +1936,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1998,7 +2001,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2041,7 +2044,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2116,7 +2119,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2302,7 +2305,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2368,7 +2371,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2426,7 +2429,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2492,7 +2495,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2548,7 +2551,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2623,7 +2626,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2666,7 +2669,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2732,7 +2735,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2788,7 +2791,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2886,7 +2889,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2949,7 +2952,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3015,7 +3018,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K244" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K245" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -3393,12 +3396,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K244"/>
+  <dimension ref="A2:K245"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A221" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="H231" sqref="H231"/>
+      <selection pane="bottomLeft" activeCell="B238" sqref="B238"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3565,7 +3568,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>9.5</v>
+        <v>3.5</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -8606,7 +8609,9 @@
       <c r="A236" s="40">
         <v>44986</v>
       </c>
-      <c r="B236" s="20"/>
+      <c r="B236" s="20" t="s">
+        <v>115</v>
+      </c>
       <c r="C236" s="13">
         <v>1.25</v>
       </c>
@@ -8620,13 +8625,15 @@
       <c r="H236" s="39"/>
       <c r="I236" s="9"/>
       <c r="J236" s="11"/>
-      <c r="K236" s="20"/>
+      <c r="K236" s="20" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="237" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A237" s="40">
-        <v>45017</v>
-      </c>
-      <c r="B237" s="20"/>
+      <c r="A237" s="40"/>
+      <c r="B237" s="20" t="s">
+        <v>89</v>
+      </c>
       <c r="C237" s="13"/>
       <c r="D237" s="39"/>
       <c r="E237" s="9"/>
@@ -8635,14 +8642,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H237" s="39"/>
+      <c r="H237" s="39">
+        <v>6</v>
+      </c>
       <c r="I237" s="9"/>
       <c r="J237" s="11"/>
-      <c r="K237" s="20"/>
+      <c r="K237" s="20" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="40">
-        <v>45047</v>
+        <v>45017</v>
       </c>
       <c r="B238" s="20"/>
       <c r="C238" s="13"/>
@@ -8659,7 +8670,9 @@
       <c r="K238" s="20"/>
     </row>
     <row r="239" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A239" s="40"/>
+      <c r="A239" s="40">
+        <v>45047</v>
+      </c>
       <c r="B239" s="20"/>
       <c r="C239" s="13"/>
       <c r="D239" s="39"/>
@@ -8740,19 +8753,35 @@
     </row>
     <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="40"/>
-      <c r="B244" s="15"/>
-      <c r="C244" s="41"/>
-      <c r="D244" s="42"/>
+      <c r="B244" s="20"/>
+      <c r="C244" s="13"/>
+      <c r="D244" s="39"/>
       <c r="E244" s="9"/>
-      <c r="F244" s="15"/>
-      <c r="G244" s="41" t="str">
+      <c r="F244" s="20"/>
+      <c r="G244" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H244" s="42"/>
+      <c r="H244" s="39"/>
       <c r="I244" s="9"/>
-      <c r="J244" s="12"/>
-      <c r="K244" s="15"/>
+      <c r="J244" s="11"/>
+      <c r="K244" s="20"/>
+    </row>
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A245" s="40"/>
+      <c r="B245" s="15"/>
+      <c r="C245" s="41"/>
+      <c r="D245" s="42"/>
+      <c r="E245" s="9"/>
+      <c r="F245" s="15"/>
+      <c r="G245" s="41" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H245" s="42"/>
+      <c r="I245" s="9"/>
+      <c r="J245" s="12"/>
+      <c r="K245" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/REGULAR/OJT/NEW DONE/DELFINO, NIÑA.xlsx
+++ b/REGULAR/OJT/NEW DONE/DELFINO, NIÑA.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED66ED7F-E390-4492-9BE3-1A63FA41DBC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9390" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -24,25 +25,17 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="194">
   <si>
     <t>PERIOD</t>
   </si>
@@ -621,12 +614,15 @@
   </si>
   <si>
     <t>3/1-4,6,7/2023</t>
+  </si>
+  <si>
+    <t>1 - Married (and not separated)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1483,7 +1479,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1526,7 +1522,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1590,7 +1586,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1650,7 +1646,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1716,7 +1712,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1779,7 +1775,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1877,7 +1873,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1936,7 +1932,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2001,7 +1997,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2044,7 +2040,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2119,7 +2115,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2305,7 +2301,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2371,7 +2367,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2429,7 +2425,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2495,7 +2491,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2551,7 +2547,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2626,7 +2622,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2669,7 +2665,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2735,7 +2731,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2791,7 +2787,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2889,7 +2885,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2952,7 +2948,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3018,25 +3014,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K245" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K245" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3048,13 +3044,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="DAYS"/>
-    <tableColumn id="2" name="HOURS"/>
-    <tableColumn id="3" name="MINUTES"/>
-    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3063,14 +3059,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3374,7 +3370,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3384,7 +3380,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3392,34 +3388,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K245"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A221" activePane="bottomLeft"/>
-      <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="B238" sqref="B238"/>
+      <pane ySplit="3696" topLeftCell="A229" activePane="bottomLeft"/>
+      <selection activeCell="F2" sqref="F2:G3"/>
+      <selection pane="bottomLeft" activeCell="F231" sqref="F231"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3431,7 +3427,9 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="57"/>
+      <c r="F2" s="57" t="s">
+        <v>193</v>
+      </c>
       <c r="G2" s="57"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
@@ -3440,7 +3438,7 @@
       <c r="J2" s="51"/>
       <c r="K2" s="52"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3449,7 +3447,9 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="58"/>
+      <c r="F3" s="58">
+        <v>39336</v>
+      </c>
       <c r="G3" s="55"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
@@ -3458,7 +3458,7 @@
       <c r="J3" s="53"/>
       <c r="K3" s="54"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3476,7 +3476,7 @@
       <c r="J4" s="55"/>
       <c r="K4" s="56"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3484,7 +3484,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3497,7 +3497,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="49" t="s">
@@ -3514,7 +3514,7 @@
       <c r="J7" s="49"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3549,7 +3549,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3573,7 +3573,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="47" t="s">
         <v>43</v>
       </c>
@@ -3595,7 +3595,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40" t="s">
         <v>44</v>
       </c>
@@ -3615,7 +3615,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40" t="s">
         <v>45</v>
       </c>
@@ -3635,7 +3635,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="47" t="s">
         <v>46</v>
       </c>
@@ -3653,7 +3653,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>39448</v>
       </c>
@@ -3673,7 +3673,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>39479</v>
       </c>
@@ -3693,7 +3693,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
         <v>39508</v>
       </c>
@@ -3713,7 +3713,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <v>39539</v>
       </c>
@@ -3733,7 +3733,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>39569</v>
       </c>
@@ -3753,7 +3753,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <v>39600</v>
       </c>
@@ -3777,7 +3777,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <v>39630</v>
       </c>
@@ -3801,7 +3801,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <v>39661</v>
       </c>
@@ -3825,7 +3825,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <v>39692</v>
       </c>
@@ -3849,7 +3849,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40">
         <v>39722</v>
       </c>
@@ -3869,7 +3869,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <v>39753</v>
       </c>
@@ -3889,7 +3889,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <v>39783</v>
       </c>
@@ -3913,7 +3913,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="47" t="s">
         <v>47</v>
       </c>
@@ -3935,7 +3935,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <v>39814</v>
       </c>
@@ -3955,7 +3955,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
         <v>39845</v>
       </c>
@@ -3975,7 +3975,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <v>39873</v>
       </c>
@@ -4001,7 +4001,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
         <v>39904</v>
       </c>
@@ -4021,7 +4021,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
         <v>39934</v>
       </c>
@@ -4047,7 +4047,7 @@
         <v>40122</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
         <v>39965</v>
       </c>
@@ -4073,7 +4073,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <v>39995</v>
       </c>
@@ -4099,7 +4099,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
         <v>40026</v>
       </c>
@@ -4119,7 +4119,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
         <v>40057</v>
       </c>
@@ -4139,7 +4139,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40">
         <v>40087</v>
       </c>
@@ -4159,7 +4159,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
         <v>40118</v>
       </c>
@@ -4179,7 +4179,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <v>40148</v>
       </c>
@@ -4199,7 +4199,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="47" t="s">
         <v>48</v>
       </c>
@@ -4221,7 +4221,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
         <v>40179</v>
       </c>
@@ -4245,7 +4245,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
         <v>40210</v>
       </c>
@@ -4265,7 +4265,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
         <v>40238</v>
       </c>
@@ -4289,7 +4289,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
         <v>40269</v>
       </c>
@@ -4313,7 +4313,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40">
         <v>40299</v>
       </c>
@@ -4337,7 +4337,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
         <v>40330</v>
       </c>
@@ -4361,7 +4361,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40">
         <v>40360</v>
       </c>
@@ -4385,7 +4385,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
         <v>40391</v>
       </c>
@@ -4409,7 +4409,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40"/>
       <c r="B48" s="20" t="s">
         <v>53</v>
@@ -4431,7 +4431,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40">
         <v>40422</v>
       </c>
@@ -4455,7 +4455,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
         <v>40452</v>
       </c>
@@ -4479,7 +4479,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40">
         <v>40483</v>
       </c>
@@ -4503,7 +4503,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
         <v>40513</v>
       </c>
@@ -4527,7 +4527,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="47" t="s">
         <v>76</v>
       </c>
@@ -4549,7 +4549,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
         <v>40544</v>
       </c>
@@ -4575,7 +4575,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40"/>
       <c r="B55" s="20" t="s">
         <v>84</v>
@@ -4595,7 +4595,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40">
         <v>40575</v>
       </c>
@@ -4619,7 +4619,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
         <v>40603</v>
       </c>
@@ -4643,7 +4643,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
         <v>40634</v>
       </c>
@@ -4667,7 +4667,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
         <v>40664</v>
       </c>
@@ -4691,7 +4691,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
         <v>40695</v>
       </c>
@@ -4711,7 +4711,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
         <v>40725</v>
       </c>
@@ -4731,7 +4731,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40">
         <v>40756</v>
       </c>
@@ -4751,7 +4751,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40">
         <v>40787</v>
       </c>
@@ -4777,7 +4777,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
         <v>40817</v>
       </c>
@@ -4797,7 +4797,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40">
         <v>40848</v>
       </c>
@@ -4821,7 +4821,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
         <v>40878</v>
       </c>
@@ -4845,7 +4845,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40"/>
       <c r="B67" s="20" t="s">
         <v>93</v>
@@ -4869,7 +4869,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="47" t="s">
         <v>75</v>
       </c>
@@ -4891,7 +4891,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40">
         <v>40909</v>
       </c>
@@ -4917,7 +4917,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40"/>
       <c r="B70" s="20" t="s">
         <v>55</v>
@@ -4939,7 +4939,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40">
         <v>40940</v>
       </c>
@@ -4959,7 +4959,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
         <v>40969</v>
       </c>
@@ -4979,7 +4979,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40">
         <v>41000</v>
       </c>
@@ -4999,7 +4999,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40">
         <v>41030</v>
       </c>
@@ -5025,7 +5025,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40"/>
       <c r="B75" s="20" t="s">
         <v>53</v>
@@ -5047,7 +5047,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40">
         <v>41061</v>
       </c>
@@ -5067,7 +5067,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40">
         <v>41091</v>
       </c>
@@ -5093,7 +5093,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40">
         <v>41122</v>
       </c>
@@ -5113,7 +5113,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40">
         <v>41153</v>
       </c>
@@ -5133,7 +5133,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40">
         <v>41183</v>
       </c>
@@ -5153,7 +5153,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40">
         <v>41214</v>
       </c>
@@ -5173,7 +5173,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40">
         <v>41244</v>
       </c>
@@ -5193,7 +5193,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="47" t="s">
         <v>74</v>
       </c>
@@ -5215,7 +5215,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40">
         <v>41275</v>
       </c>
@@ -5241,7 +5241,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40"/>
       <c r="B85" s="20" t="s">
         <v>95</v>
@@ -5263,7 +5263,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40">
         <v>41306</v>
       </c>
@@ -5283,7 +5283,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40">
         <v>41334</v>
       </c>
@@ -5307,7 +5307,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40"/>
       <c r="B88" s="20" t="s">
         <v>102</v>
@@ -5327,7 +5327,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40">
         <v>41365</v>
       </c>
@@ -5347,7 +5347,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40">
         <v>41395</v>
       </c>
@@ -5373,7 +5373,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40">
         <v>41426</v>
       </c>
@@ -5397,7 +5397,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40">
         <v>41456</v>
       </c>
@@ -5421,7 +5421,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40">
         <v>41487</v>
       </c>
@@ -5445,7 +5445,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40">
         <v>41518</v>
       </c>
@@ -5465,7 +5465,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40">
         <v>41548</v>
       </c>
@@ -5489,7 +5489,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40">
         <v>41579</v>
       </c>
@@ -5509,7 +5509,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40">
         <v>41609</v>
       </c>
@@ -5533,7 +5533,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="47" t="s">
         <v>73</v>
       </c>
@@ -5555,7 +5555,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40">
         <v>41640</v>
       </c>
@@ -5581,7 +5581,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40">
         <v>41671</v>
       </c>
@@ -5605,7 +5605,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40">
         <v>41699</v>
       </c>
@@ -5629,7 +5629,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40"/>
       <c r="B102" s="20" t="s">
         <v>115</v>
@@ -5649,7 +5649,7 @@
         <v>41793</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40"/>
       <c r="B103" s="20" t="s">
         <v>115</v>
@@ -5669,7 +5669,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40">
         <v>41730</v>
       </c>
@@ -5695,7 +5695,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40">
         <v>41760</v>
       </c>
@@ -5721,7 +5721,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40">
         <v>41791</v>
       </c>
@@ -5747,7 +5747,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40"/>
       <c r="B107" s="20" t="s">
         <v>118</v>
@@ -5769,7 +5769,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40">
         <v>41821</v>
       </c>
@@ -5795,7 +5795,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40">
         <v>41852</v>
       </c>
@@ -5817,7 +5817,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40">
         <v>41883</v>
       </c>
@@ -5837,7 +5837,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40">
         <v>41913</v>
       </c>
@@ -5857,7 +5857,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40">
         <v>41944</v>
       </c>
@@ -5877,7 +5877,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40">
         <v>41974</v>
       </c>
@@ -5901,7 +5901,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="47" t="s">
         <v>72</v>
       </c>
@@ -5923,7 +5923,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40">
         <v>42005</v>
       </c>
@@ -5949,7 +5949,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40"/>
       <c r="B116" s="20" t="s">
         <v>128</v>
@@ -5969,7 +5969,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40">
         <v>42036</v>
       </c>
@@ -5995,7 +5995,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40"/>
       <c r="B118" s="20" t="s">
         <v>130</v>
@@ -6015,7 +6015,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40">
         <v>42064</v>
       </c>
@@ -6041,7 +6041,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40"/>
       <c r="B120" s="20" t="s">
         <v>115</v>
@@ -6061,7 +6061,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40"/>
       <c r="B121" s="20" t="s">
         <v>115</v>
@@ -6081,7 +6081,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40"/>
       <c r="B122" s="20" t="s">
         <v>132</v>
@@ -6101,7 +6101,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40">
         <v>42095</v>
       </c>
@@ -6125,7 +6125,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40">
         <v>42125</v>
       </c>
@@ -6149,7 +6149,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40">
         <v>42156</v>
       </c>
@@ -6173,7 +6173,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40">
         <v>42186</v>
       </c>
@@ -6199,7 +6199,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40">
         <v>42217</v>
       </c>
@@ -6219,7 +6219,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40">
         <v>42248</v>
       </c>
@@ -6239,7 +6239,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40">
         <v>42278</v>
       </c>
@@ -6263,7 +6263,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40">
         <v>42309</v>
       </c>
@@ -6287,7 +6287,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40">
         <v>42339</v>
       </c>
@@ -6307,7 +6307,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="47" t="s">
         <v>71</v>
       </c>
@@ -6329,7 +6329,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40">
         <v>42370</v>
       </c>
@@ -6349,7 +6349,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="40">
         <v>42401</v>
       </c>
@@ -6375,7 +6375,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="40">
         <v>42430</v>
       </c>
@@ -6395,7 +6395,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="40">
         <v>42461</v>
       </c>
@@ -6415,7 +6415,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="40">
         <v>42491</v>
       </c>
@@ -6441,7 +6441,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="40">
         <v>42522</v>
       </c>
@@ -6467,7 +6467,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="40">
         <v>42552</v>
       </c>
@@ -6493,7 +6493,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="40">
         <v>42583</v>
       </c>
@@ -6513,7 +6513,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="40">
         <v>42614</v>
       </c>
@@ -6539,7 +6539,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="40">
         <v>42644</v>
       </c>
@@ -6559,7 +6559,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="40">
         <v>42675</v>
       </c>
@@ -6579,7 +6579,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="40">
         <v>42705</v>
       </c>
@@ -6599,7 +6599,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="47" t="s">
         <v>70</v>
       </c>
@@ -6621,7 +6621,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="40">
         <v>42736</v>
       </c>
@@ -6647,7 +6647,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="40">
         <v>42767</v>
       </c>
@@ -6667,7 +6667,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="40">
         <v>42795</v>
       </c>
@@ -6693,7 +6693,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="40"/>
       <c r="B149" s="20" t="s">
         <v>150</v>
@@ -6713,7 +6713,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="40">
         <v>42826</v>
       </c>
@@ -6733,7 +6733,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="40">
         <v>42856</v>
       </c>
@@ -6757,7 +6757,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="40">
         <v>42887</v>
       </c>
@@ -6783,7 +6783,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="40">
         <v>42917</v>
       </c>
@@ -6803,7 +6803,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="40">
         <v>42948</v>
       </c>
@@ -6829,7 +6829,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="40">
         <v>42979</v>
       </c>
@@ -6853,7 +6853,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="40">
         <v>43009</v>
       </c>
@@ -6873,7 +6873,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="40">
         <v>43040</v>
       </c>
@@ -6899,7 +6899,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="40"/>
       <c r="B158" s="20" t="s">
         <v>152</v>
@@ -6921,7 +6921,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="40">
         <v>43070</v>
       </c>
@@ -6941,7 +6941,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="47" t="s">
         <v>69</v>
       </c>
@@ -6963,7 +6963,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="40">
         <v>43101</v>
       </c>
@@ -6989,7 +6989,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="40">
         <v>43132</v>
       </c>
@@ -7015,7 +7015,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="40">
         <v>43160</v>
       </c>
@@ -7039,7 +7039,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="40">
         <v>43191</v>
       </c>
@@ -7059,7 +7059,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="40">
         <v>43221</v>
       </c>
@@ -7085,7 +7085,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="40">
         <v>43252</v>
       </c>
@@ -7113,7 +7113,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="40">
         <v>43282</v>
       </c>
@@ -7133,7 +7133,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="40">
         <v>43313</v>
       </c>
@@ -7153,7 +7153,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="40">
         <v>43344</v>
       </c>
@@ -7173,7 +7173,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="40">
         <v>43374</v>
       </c>
@@ -7193,7 +7193,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="40">
         <v>43405</v>
       </c>
@@ -7219,7 +7219,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="40">
         <v>43435</v>
       </c>
@@ -7239,7 +7239,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="47" t="s">
         <v>68</v>
       </c>
@@ -7261,7 +7261,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="40">
         <v>43466</v>
       </c>
@@ -7287,7 +7287,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="40"/>
       <c r="B175" s="20" t="s">
         <v>151</v>
@@ -7309,7 +7309,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="40">
         <v>43497</v>
       </c>
@@ -7329,7 +7329,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="40">
         <v>43525</v>
       </c>
@@ -7349,7 +7349,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="40">
         <v>43556</v>
       </c>
@@ -7375,7 +7375,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="40"/>
       <c r="B179" s="20" t="s">
         <v>115</v>
@@ -7395,7 +7395,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="40">
         <v>43586</v>
       </c>
@@ -7415,7 +7415,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="40">
         <v>43617</v>
       </c>
@@ -7435,7 +7435,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="40">
         <v>43647</v>
       </c>
@@ -7455,7 +7455,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="40">
         <v>43678</v>
       </c>
@@ -7475,7 +7475,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="40">
         <v>43709</v>
       </c>
@@ -7495,7 +7495,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="40">
         <v>43739</v>
       </c>
@@ -7521,7 +7521,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="40"/>
       <c r="B186" s="20" t="s">
         <v>114</v>
@@ -7543,7 +7543,7 @@
         <v>43475</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="40"/>
       <c r="B187" s="20" t="s">
         <v>117</v>
@@ -7565,7 +7565,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="40">
         <v>43770</v>
       </c>
@@ -7585,7 +7585,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="40">
         <v>43800</v>
       </c>
@@ -7611,7 +7611,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="47" t="s">
         <v>67</v>
       </c>
@@ -7633,7 +7633,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="40">
         <v>43831</v>
       </c>
@@ -7659,7 +7659,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="40"/>
       <c r="B192" s="20" t="s">
         <v>173</v>
@@ -7679,7 +7679,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="40">
         <v>43862</v>
       </c>
@@ -7705,7 +7705,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="40">
         <v>43891</v>
       </c>
@@ -7731,7 +7731,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="40">
         <v>43922</v>
       </c>
@@ -7751,7 +7751,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="40">
         <v>43952</v>
       </c>
@@ -7771,7 +7771,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="40">
         <v>43983</v>
       </c>
@@ -7791,7 +7791,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="40">
         <v>44013</v>
       </c>
@@ -7811,7 +7811,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="40">
         <v>44044</v>
       </c>
@@ -7837,7 +7837,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="40">
         <v>44075</v>
       </c>
@@ -7863,7 +7863,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="40"/>
       <c r="B201" s="20" t="s">
         <v>177</v>
@@ -7885,7 +7885,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="40">
         <v>44105</v>
       </c>
@@ -7905,7 +7905,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="40">
         <v>44136</v>
       </c>
@@ -7925,7 +7925,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="20"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="40">
         <v>44166</v>
       </c>
@@ -7949,7 +7949,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="47" t="s">
         <v>66</v>
       </c>
@@ -7971,7 +7971,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="40">
         <v>44197</v>
       </c>
@@ -7991,7 +7991,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="40">
         <v>44228</v>
       </c>
@@ -8011,7 +8011,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="40">
         <v>44256</v>
       </c>
@@ -8031,7 +8031,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="40">
         <v>44287</v>
       </c>
@@ -8051,7 +8051,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="40">
         <v>44317</v>
       </c>
@@ -8071,7 +8071,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="40">
         <v>44348</v>
       </c>
@@ -8091,7 +8091,7 @@
       <c r="J211" s="11"/>
       <c r="K211" s="20"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="40">
         <v>44378</v>
       </c>
@@ -8111,7 +8111,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="40">
         <v>44409</v>
       </c>
@@ -8131,7 +8131,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="40">
         <v>44440</v>
       </c>
@@ -8151,7 +8151,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="40">
         <v>44470</v>
       </c>
@@ -8171,7 +8171,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" s="40">
         <v>44501</v>
       </c>
@@ -8191,7 +8191,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="40">
         <v>44531</v>
       </c>
@@ -8215,7 +8215,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="47" t="s">
         <v>65</v>
       </c>
@@ -8237,7 +8237,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="40">
         <v>44562</v>
       </c>
@@ -8257,7 +8257,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="40">
         <v>44593</v>
       </c>
@@ -8277,7 +8277,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="40">
         <v>44621</v>
       </c>
@@ -8301,7 +8301,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="40">
         <v>44652</v>
       </c>
@@ -8321,7 +8321,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="40">
         <v>44682</v>
       </c>
@@ -8341,7 +8341,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="40">
         <v>44713</v>
       </c>
@@ -8367,7 +8367,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" s="40"/>
       <c r="B225" s="20" t="s">
         <v>96</v>
@@ -8387,7 +8387,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="40">
         <v>44743</v>
       </c>
@@ -8407,7 +8407,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" s="40">
         <v>44774</v>
       </c>
@@ -8433,7 +8433,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" s="40">
         <v>44805</v>
       </c>
@@ -8453,7 +8453,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" s="40">
         <v>44835</v>
       </c>
@@ -8479,7 +8479,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" s="40"/>
       <c r="B230" s="20" t="s">
         <v>96</v>
@@ -8501,7 +8501,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" s="40">
         <v>44866</v>
       </c>
@@ -8521,7 +8521,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" s="40">
         <v>44896</v>
       </c>
@@ -8541,7 +8541,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="47" t="s">
         <v>186</v>
       </c>
@@ -8559,7 +8559,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="20"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" s="40">
         <v>44927</v>
       </c>
@@ -8585,7 +8585,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" s="40">
         <v>44958</v>
       </c>
@@ -8605,7 +8605,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" s="40">
         <v>44986</v>
       </c>
@@ -8629,7 +8629,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" s="40"/>
       <c r="B237" s="20" t="s">
         <v>89</v>
@@ -8651,7 +8651,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" s="40">
         <v>45017</v>
       </c>
@@ -8669,7 +8669,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" s="40">
         <v>45047</v>
       </c>
@@ -8687,7 +8687,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" s="40"/>
       <c r="B240" s="20"/>
       <c r="C240" s="13"/>
@@ -8703,7 +8703,7 @@
       <c r="J240" s="11"/>
       <c r="K240" s="20"/>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" s="40"/>
       <c r="B241" s="20"/>
       <c r="C241" s="13"/>
@@ -8719,7 +8719,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" s="40"/>
       <c r="B242" s="20"/>
       <c r="C242" s="13"/>
@@ -8735,7 +8735,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" s="40"/>
       <c r="B243" s="20"/>
       <c r="C243" s="13"/>
@@ -8751,7 +8751,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" s="40"/>
       <c r="B244" s="20"/>
       <c r="C244" s="13"/>
@@ -8767,7 +8767,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" s="40"/>
       <c r="B245" s="15"/>
       <c r="C245" s="41"/>
@@ -8797,11 +8797,11 @@
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="F4:G4"/>
   </mergeCells>
-  <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{A046AC86-B92D-4E5A-9D65-BD1BFE5EE18E}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8824,7 +8824,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -8832,21 +8832,21 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5703125" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="59" t="s">
         <v>33</v>
       </c>
@@ -8859,7 +8859,7 @@
       <c r="K1" s="60"/>
       <c r="L1" s="60"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -8888,7 +8888,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3">
@@ -8914,17 +8914,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -8945,7 +8945,7 @@
       <c r="K6" s="60"/>
       <c r="L6" s="60"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -8972,7 +8972,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -8998,7 +8998,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -9024,7 +9024,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -9050,7 +9050,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -9076,7 +9076,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -9102,7 +9102,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -9128,7 +9128,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -9154,7 +9154,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -9174,7 +9174,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -9194,7 +9194,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -9214,7 +9214,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -9235,7 +9235,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -9256,7 +9256,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -9277,7 +9277,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -9298,7 +9298,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -9319,7 +9319,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -9340,7 +9340,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -9361,7 +9361,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -9382,7 +9382,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -9403,7 +9403,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -9424,7 +9424,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -9445,7 +9445,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -9466,7 +9466,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -9487,7 +9487,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -9508,7 +9508,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -9529,7 +9529,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -9550,7 +9550,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -9571,7 +9571,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -9592,7 +9592,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -9613,7 +9613,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -9634,7 +9634,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -9643,7 +9643,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -9652,7 +9652,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -9661,7 +9661,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -9670,7 +9670,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -9679,7 +9679,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -9688,7 +9688,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -9697,7 +9697,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -9706,7 +9706,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -9715,7 +9715,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -9724,7 +9724,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -9733,7 +9733,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -9742,7 +9742,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -9751,7 +9751,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -9760,7 +9760,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -9769,7 +9769,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -9778,7 +9778,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -9787,7 +9787,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -9796,7 +9796,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -9805,7 +9805,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -9814,7 +9814,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -9823,7 +9823,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -9832,7 +9832,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -9841,7 +9841,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -9850,7 +9850,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -9859,7 +9859,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -9868,7 +9868,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -9877,7 +9877,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -9886,7 +9886,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -9895,7 +9895,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/OJT/NEW DONE/DELFINO, NIÑA.xlsx
+++ b/REGULAR/OJT/NEW DONE/DELFINO, NIÑA.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED66ED7F-E390-4492-9BE3-1A63FA41DBC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="12360" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="198">
   <si>
     <t>PERIOD</t>
   </si>
@@ -617,12 +616,24 @@
   </si>
   <si>
     <t>1 - Married (and not separated)</t>
+  </si>
+  <si>
+    <t>4/6,9,10/2023</t>
+  </si>
+  <si>
+    <t>ONT</t>
+  </si>
+  <si>
+    <t>4/17-20,24-28/2023</t>
+  </si>
+  <si>
+    <t>SVL(9-0-0)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1479,7 +1490,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1522,7 +1533,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1586,7 +1597,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1646,7 +1657,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1712,7 +1723,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1775,7 +1786,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1873,7 +1884,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1932,7 +1943,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1997,7 +2008,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2040,7 +2051,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2115,7 +2126,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2301,7 +2312,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2367,7 +2378,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2425,7 +2436,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2491,7 +2502,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2547,7 +2558,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2622,7 +2633,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2665,7 +2676,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2731,7 +2742,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2787,7 +2798,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2885,7 +2896,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2948,7 +2959,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3014,25 +3025,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K245" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K245" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -3044,13 +3055,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" name="DAYS"/>
+    <tableColumn id="2" name="HOURS"/>
+    <tableColumn id="3" name="MINUTES"/>
+    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3059,14 +3070,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3370,7 +3381,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -3380,7 +3391,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -3388,34 +3399,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K245"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A229" activePane="bottomLeft"/>
-      <selection activeCell="F2" sqref="F2:G3"/>
-      <selection pane="bottomLeft" activeCell="F231" sqref="F231"/>
+      <pane ySplit="3690" topLeftCell="A228" activePane="bottomLeft"/>
+      <selection activeCell="A8" sqref="A8:K8"/>
+      <selection pane="bottomLeft" activeCell="D241" sqref="D241"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3438,7 +3449,7 @@
       <c r="J2" s="51"/>
       <c r="K2" s="52"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3458,7 +3469,7 @@
       <c r="J3" s="53"/>
       <c r="K3" s="54"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -3467,7 +3478,9 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="55"/>
+      <c r="F4" s="55" t="s">
+        <v>195</v>
+      </c>
       <c r="G4" s="55"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
@@ -3476,7 +3489,7 @@
       <c r="J4" s="55"/>
       <c r="K4" s="56"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -3484,7 +3497,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -3497,7 +3510,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="49" t="s">
@@ -3514,7 +3527,7 @@
       <c r="J7" s="49"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -3549,7 +3562,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -3558,7 +3571,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>39.497000000000014</v>
+        <v>32.747000000000014</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3568,12 +3581,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>3.5</v>
+        <v>0.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="47" t="s">
         <v>43</v>
       </c>
@@ -3595,7 +3608,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40" t="s">
         <v>44</v>
       </c>
@@ -3615,7 +3628,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40" t="s">
         <v>45</v>
       </c>
@@ -3635,7 +3648,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="47" t="s">
         <v>46</v>
       </c>
@@ -3653,7 +3666,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>39448</v>
       </c>
@@ -3673,7 +3686,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>39479</v>
       </c>
@@ -3693,7 +3706,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>39508</v>
       </c>
@@ -3713,7 +3726,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>39539</v>
       </c>
@@ -3733,7 +3746,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>39569</v>
       </c>
@@ -3753,7 +3766,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>39600</v>
       </c>
@@ -3777,7 +3790,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>39630</v>
       </c>
@@ -3801,7 +3814,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>39661</v>
       </c>
@@ -3825,7 +3838,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>39692</v>
       </c>
@@ -3849,7 +3862,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
         <v>39722</v>
       </c>
@@ -3869,7 +3882,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>39753</v>
       </c>
@@ -3889,7 +3902,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>39783</v>
       </c>
@@ -3913,7 +3926,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="47" t="s">
         <v>47</v>
       </c>
@@ -3935,7 +3948,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>39814</v>
       </c>
@@ -3955,7 +3968,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>39845</v>
       </c>
@@ -3975,7 +3988,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>39873</v>
       </c>
@@ -4001,7 +4014,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <v>39904</v>
       </c>
@@ -4021,7 +4034,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>39934</v>
       </c>
@@ -4047,7 +4060,7 @@
         <v>40122</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>39965</v>
       </c>
@@ -4073,7 +4086,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>39995</v>
       </c>
@@ -4099,7 +4112,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>40026</v>
       </c>
@@ -4119,7 +4132,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>40057</v>
       </c>
@@ -4139,7 +4152,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
         <v>40087</v>
       </c>
@@ -4159,7 +4172,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>40118</v>
       </c>
@@ -4179,7 +4192,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>40148</v>
       </c>
@@ -4199,7 +4212,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="47" t="s">
         <v>48</v>
       </c>
@@ -4221,7 +4234,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>40179</v>
       </c>
@@ -4245,7 +4258,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <v>40210</v>
       </c>
@@ -4265,7 +4278,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>40238</v>
       </c>
@@ -4289,7 +4302,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>40269</v>
       </c>
@@ -4313,7 +4326,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <v>40299</v>
       </c>
@@ -4337,7 +4350,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>40330</v>
       </c>
@@ -4361,7 +4374,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <v>40360</v>
       </c>
@@ -4385,7 +4398,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>40391</v>
       </c>
@@ -4409,7 +4422,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40"/>
       <c r="B48" s="20" t="s">
         <v>53</v>
@@ -4431,7 +4444,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
         <v>40422</v>
       </c>
@@ -4455,7 +4468,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <v>40452</v>
       </c>
@@ -4479,7 +4492,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>40483</v>
       </c>
@@ -4503,7 +4516,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <v>40513</v>
       </c>
@@ -4527,7 +4540,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="47" t="s">
         <v>76</v>
       </c>
@@ -4549,7 +4562,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>40544</v>
       </c>
@@ -4575,7 +4588,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40"/>
       <c r="B55" s="20" t="s">
         <v>84</v>
@@ -4595,7 +4608,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>40575</v>
       </c>
@@ -4619,7 +4632,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <v>40603</v>
       </c>
@@ -4643,7 +4656,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <v>40634</v>
       </c>
@@ -4667,7 +4680,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>40664</v>
       </c>
@@ -4691,7 +4704,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>40695</v>
       </c>
@@ -4711,7 +4724,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <v>40725</v>
       </c>
@@ -4731,7 +4744,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
         <v>40756</v>
       </c>
@@ -4751,7 +4764,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <v>40787</v>
       </c>
@@ -4777,7 +4790,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>40817</v>
       </c>
@@ -4797,7 +4810,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <v>40848</v>
       </c>
@@ -4821,7 +4834,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <v>40878</v>
       </c>
@@ -4845,7 +4858,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40"/>
       <c r="B67" s="20" t="s">
         <v>93</v>
@@ -4869,7 +4882,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="47" t="s">
         <v>75</v>
       </c>
@@ -4891,7 +4904,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <v>40909</v>
       </c>
@@ -4917,7 +4930,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40"/>
       <c r="B70" s="20" t="s">
         <v>55</v>
@@ -4939,7 +4952,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <v>40940</v>
       </c>
@@ -4959,7 +4972,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <v>40969</v>
       </c>
@@ -4979,7 +4992,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <v>41000</v>
       </c>
@@ -4999,7 +5012,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <v>41030</v>
       </c>
@@ -5025,7 +5038,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40"/>
       <c r="B75" s="20" t="s">
         <v>53</v>
@@ -5047,7 +5060,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <v>41061</v>
       </c>
@@ -5067,7 +5080,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <v>41091</v>
       </c>
@@ -5093,7 +5106,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <v>41122</v>
       </c>
@@ -5113,7 +5126,7 @@
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <v>41153</v>
       </c>
@@ -5133,7 +5146,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <v>41183</v>
       </c>
@@ -5153,7 +5166,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
         <v>41214</v>
       </c>
@@ -5173,7 +5186,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
         <v>41244</v>
       </c>
@@ -5193,7 +5206,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="47" t="s">
         <v>74</v>
       </c>
@@ -5215,7 +5228,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <v>41275</v>
       </c>
@@ -5241,7 +5254,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40"/>
       <c r="B85" s="20" t="s">
         <v>95</v>
@@ -5263,7 +5276,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <v>41306</v>
       </c>
@@ -5283,7 +5296,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
         <v>41334</v>
       </c>
@@ -5307,7 +5320,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40"/>
       <c r="B88" s="20" t="s">
         <v>102</v>
@@ -5327,7 +5340,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
         <v>41365</v>
       </c>
@@ -5347,7 +5360,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
         <v>41395</v>
       </c>
@@ -5373,7 +5386,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
         <v>41426</v>
       </c>
@@ -5397,7 +5410,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
         <v>41456</v>
       </c>
@@ -5421,7 +5434,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
         <v>41487</v>
       </c>
@@ -5445,7 +5458,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
         <v>41518</v>
       </c>
@@ -5465,7 +5478,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
         <v>41548</v>
       </c>
@@ -5489,7 +5502,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
         <v>41579</v>
       </c>
@@ -5509,7 +5522,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
         <v>41609</v>
       </c>
@@ -5533,7 +5546,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="47" t="s">
         <v>73</v>
       </c>
@@ -5555,7 +5568,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
         <v>41640</v>
       </c>
@@ -5581,7 +5594,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
         <v>41671</v>
       </c>
@@ -5605,7 +5618,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
         <v>41699</v>
       </c>
@@ -5629,7 +5642,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40"/>
       <c r="B102" s="20" t="s">
         <v>115</v>
@@ -5649,7 +5662,7 @@
         <v>41793</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40"/>
       <c r="B103" s="20" t="s">
         <v>115</v>
@@ -5669,7 +5682,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
         <v>41730</v>
       </c>
@@ -5695,7 +5708,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
         <v>41760</v>
       </c>
@@ -5721,7 +5734,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
         <v>41791</v>
       </c>
@@ -5747,7 +5760,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40"/>
       <c r="B107" s="20" t="s">
         <v>118</v>
@@ -5769,7 +5782,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
         <v>41821</v>
       </c>
@@ -5795,7 +5808,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
         <v>41852</v>
       </c>
@@ -5817,7 +5830,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
         <v>41883</v>
       </c>
@@ -5837,7 +5850,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
         <v>41913</v>
       </c>
@@ -5857,7 +5870,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
         <v>41944</v>
       </c>
@@ -5877,7 +5890,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
         <v>41974</v>
       </c>
@@ -5901,7 +5914,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="47" t="s">
         <v>72</v>
       </c>
@@ -5923,7 +5936,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
         <v>42005</v>
       </c>
@@ -5949,7 +5962,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40"/>
       <c r="B116" s="20" t="s">
         <v>128</v>
@@ -5969,7 +5982,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
         <v>42036</v>
       </c>
@@ -5995,7 +6008,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40"/>
       <c r="B118" s="20" t="s">
         <v>130</v>
@@ -6015,7 +6028,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
         <v>42064</v>
       </c>
@@ -6041,7 +6054,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40"/>
       <c r="B120" s="20" t="s">
         <v>115</v>
@@ -6061,7 +6074,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40"/>
       <c r="B121" s="20" t="s">
         <v>115</v>
@@ -6081,7 +6094,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40"/>
       <c r="B122" s="20" t="s">
         <v>132</v>
@@ -6101,7 +6114,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40">
         <v>42095</v>
       </c>
@@ -6125,7 +6138,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
         <v>42125</v>
       </c>
@@ -6149,7 +6162,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40">
         <v>42156</v>
       </c>
@@ -6173,7 +6186,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40">
         <v>42186</v>
       </c>
@@ -6199,7 +6212,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40">
         <v>42217</v>
       </c>
@@ -6219,7 +6232,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40">
         <v>42248</v>
       </c>
@@ -6239,7 +6252,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40">
         <v>42278</v>
       </c>
@@ -6263,7 +6276,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40">
         <v>42309</v>
       </c>
@@ -6287,7 +6300,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40">
         <v>42339</v>
       </c>
@@ -6307,7 +6320,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="47" t="s">
         <v>71</v>
       </c>
@@ -6329,7 +6342,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40">
         <v>42370</v>
       </c>
@@ -6349,7 +6362,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40">
         <v>42401</v>
       </c>
@@ -6375,7 +6388,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40">
         <v>42430</v>
       </c>
@@ -6395,7 +6408,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40">
         <v>42461</v>
       </c>
@@ -6415,7 +6428,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40">
         <v>42491</v>
       </c>
@@ -6441,7 +6454,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40">
         <v>42522</v>
       </c>
@@ -6467,7 +6480,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40">
         <v>42552</v>
       </c>
@@ -6493,7 +6506,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40">
         <v>42583</v>
       </c>
@@ -6513,7 +6526,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40">
         <v>42614</v>
       </c>
@@ -6539,7 +6552,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40">
         <v>42644</v>
       </c>
@@ -6559,7 +6572,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40">
         <v>42675</v>
       </c>
@@ -6579,7 +6592,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40">
         <v>42705</v>
       </c>
@@ -6599,7 +6612,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="47" t="s">
         <v>70</v>
       </c>
@@ -6621,7 +6634,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="40">
         <v>42736</v>
       </c>
@@ -6647,7 +6660,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="40">
         <v>42767</v>
       </c>
@@ -6667,7 +6680,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="40">
         <v>42795</v>
       </c>
@@ -6693,7 +6706,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="40"/>
       <c r="B149" s="20" t="s">
         <v>150</v>
@@ -6713,7 +6726,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="40">
         <v>42826</v>
       </c>
@@ -6733,7 +6746,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="40">
         <v>42856</v>
       </c>
@@ -6757,7 +6770,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="40">
         <v>42887</v>
       </c>
@@ -6783,7 +6796,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="40">
         <v>42917</v>
       </c>
@@ -6803,7 +6816,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="40">
         <v>42948</v>
       </c>
@@ -6829,7 +6842,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="40">
         <v>42979</v>
       </c>
@@ -6853,7 +6866,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="40">
         <v>43009</v>
       </c>
@@ -6873,7 +6886,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="40">
         <v>43040</v>
       </c>
@@ -6899,7 +6912,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="40"/>
       <c r="B158" s="20" t="s">
         <v>152</v>
@@ -6921,7 +6934,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="40">
         <v>43070</v>
       </c>
@@ -6941,7 +6954,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="47" t="s">
         <v>69</v>
       </c>
@@ -6963,7 +6976,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="40">
         <v>43101</v>
       </c>
@@ -6989,7 +7002,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="40">
         <v>43132</v>
       </c>
@@ -7015,7 +7028,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="40">
         <v>43160</v>
       </c>
@@ -7039,7 +7052,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="40">
         <v>43191</v>
       </c>
@@ -7059,7 +7072,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="40">
         <v>43221</v>
       </c>
@@ -7085,7 +7098,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="40">
         <v>43252</v>
       </c>
@@ -7113,7 +7126,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="40">
         <v>43282</v>
       </c>
@@ -7133,7 +7146,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="40">
         <v>43313</v>
       </c>
@@ -7153,7 +7166,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="40">
         <v>43344</v>
       </c>
@@ -7173,7 +7186,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="40">
         <v>43374</v>
       </c>
@@ -7193,7 +7206,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="40">
         <v>43405</v>
       </c>
@@ -7219,7 +7232,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="40">
         <v>43435</v>
       </c>
@@ -7239,7 +7252,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="47" t="s">
         <v>68</v>
       </c>
@@ -7261,7 +7274,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="40">
         <v>43466</v>
       </c>
@@ -7287,7 +7300,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="40"/>
       <c r="B175" s="20" t="s">
         <v>151</v>
@@ -7309,7 +7322,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="40">
         <v>43497</v>
       </c>
@@ -7329,7 +7342,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="40">
         <v>43525</v>
       </c>
@@ -7349,7 +7362,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="40">
         <v>43556</v>
       </c>
@@ -7375,7 +7388,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="40"/>
       <c r="B179" s="20" t="s">
         <v>115</v>
@@ -7395,7 +7408,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="40">
         <v>43586</v>
       </c>
@@ -7415,7 +7428,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="40">
         <v>43617</v>
       </c>
@@ -7435,7 +7448,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="40">
         <v>43647</v>
       </c>
@@ -7455,7 +7468,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="40">
         <v>43678</v>
       </c>
@@ -7475,7 +7488,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="40">
         <v>43709</v>
       </c>
@@ -7495,7 +7508,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="40">
         <v>43739</v>
       </c>
@@ -7521,7 +7534,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="40"/>
       <c r="B186" s="20" t="s">
         <v>114</v>
@@ -7543,7 +7556,7 @@
         <v>43475</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="40"/>
       <c r="B187" s="20" t="s">
         <v>117</v>
@@ -7565,7 +7578,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="40">
         <v>43770</v>
       </c>
@@ -7585,7 +7598,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="40">
         <v>43800</v>
       </c>
@@ -7611,7 +7624,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="47" t="s">
         <v>67</v>
       </c>
@@ -7633,7 +7646,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="40">
         <v>43831</v>
       </c>
@@ -7659,7 +7672,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="40"/>
       <c r="B192" s="20" t="s">
         <v>173</v>
@@ -7679,7 +7692,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="40">
         <v>43862</v>
       </c>
@@ -7705,7 +7718,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="40">
         <v>43891</v>
       </c>
@@ -7731,7 +7744,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="40">
         <v>43922</v>
       </c>
@@ -7751,7 +7764,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="40">
         <v>43952</v>
       </c>
@@ -7771,7 +7784,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="40">
         <v>43983</v>
       </c>
@@ -7791,7 +7804,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="40">
         <v>44013</v>
       </c>
@@ -7811,7 +7824,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="40">
         <v>44044</v>
       </c>
@@ -7837,7 +7850,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="40">
         <v>44075</v>
       </c>
@@ -7863,7 +7876,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="40"/>
       <c r="B201" s="20" t="s">
         <v>177</v>
@@ -7885,7 +7898,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="40">
         <v>44105</v>
       </c>
@@ -7905,7 +7918,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="40">
         <v>44136</v>
       </c>
@@ -7925,7 +7938,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="20"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="40">
         <v>44166</v>
       </c>
@@ -7949,7 +7962,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="47" t="s">
         <v>66</v>
       </c>
@@ -7971,7 +7984,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="40">
         <v>44197</v>
       </c>
@@ -7991,7 +8004,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="40">
         <v>44228</v>
       </c>
@@ -8011,7 +8024,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="40">
         <v>44256</v>
       </c>
@@ -8031,7 +8044,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="40">
         <v>44287</v>
       </c>
@@ -8051,7 +8064,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="40">
         <v>44317</v>
       </c>
@@ -8071,7 +8084,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="40">
         <v>44348</v>
       </c>
@@ -8091,7 +8104,7 @@
       <c r="J211" s="11"/>
       <c r="K211" s="20"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="40">
         <v>44378</v>
       </c>
@@ -8111,7 +8124,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="40">
         <v>44409</v>
       </c>
@@ -8131,7 +8144,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="40">
         <v>44440</v>
       </c>
@@ -8151,7 +8164,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="40">
         <v>44470</v>
       </c>
@@ -8171,7 +8184,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="40">
         <v>44501</v>
       </c>
@@ -8191,7 +8204,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="40">
         <v>44531</v>
       </c>
@@ -8215,7 +8228,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="47" t="s">
         <v>65</v>
       </c>
@@ -8237,7 +8250,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="40">
         <v>44562</v>
       </c>
@@ -8257,7 +8270,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="40">
         <v>44593</v>
       </c>
@@ -8277,7 +8290,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="40">
         <v>44621</v>
       </c>
@@ -8301,7 +8314,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="40">
         <v>44652</v>
       </c>
@@ -8321,7 +8334,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="40">
         <v>44682</v>
       </c>
@@ -8341,7 +8354,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="40">
         <v>44713</v>
       </c>
@@ -8367,7 +8380,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="40"/>
       <c r="B225" s="20" t="s">
         <v>96</v>
@@ -8387,7 +8400,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="40">
         <v>44743</v>
       </c>
@@ -8407,7 +8420,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="40">
         <v>44774</v>
       </c>
@@ -8433,7 +8446,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="40">
         <v>44805</v>
       </c>
@@ -8453,7 +8466,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="40">
         <v>44835</v>
       </c>
@@ -8479,7 +8492,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="40"/>
       <c r="B230" s="20" t="s">
         <v>96</v>
@@ -8501,7 +8514,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="40">
         <v>44866</v>
       </c>
@@ -8521,7 +8534,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="40">
         <v>44896</v>
       </c>
@@ -8541,7 +8554,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="47" t="s">
         <v>186</v>
       </c>
@@ -8559,7 +8572,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="20"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="40">
         <v>44927</v>
       </c>
@@ -8585,7 +8598,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="40">
         <v>44958</v>
       </c>
@@ -8605,7 +8618,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="40">
         <v>44986</v>
       </c>
@@ -8629,7 +8642,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="40"/>
       <c r="B237" s="20" t="s">
         <v>89</v>
@@ -8651,29 +8664,33 @@
         <v>192</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="40">
         <v>45017</v>
       </c>
       <c r="B238" s="20"/>
-      <c r="C238" s="13"/>
+      <c r="C238" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D238" s="39"/>
       <c r="E238" s="9"/>
       <c r="F238" s="20"/>
-      <c r="G238" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G238" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H238" s="39"/>
       <c r="I238" s="9"/>
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="40">
         <v>45047</v>
       </c>
-      <c r="B239" s="20"/>
+      <c r="B239" s="20" t="s">
+        <v>119</v>
+      </c>
       <c r="C239" s="13"/>
       <c r="D239" s="39"/>
       <c r="E239" s="9"/>
@@ -8682,28 +8699,40 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H239" s="39"/>
+      <c r="H239" s="39">
+        <v>3</v>
+      </c>
       <c r="I239" s="9"/>
       <c r="J239" s="11"/>
-      <c r="K239" s="20"/>
-    </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K239" s="20" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="40"/>
-      <c r="B240" s="20"/>
+      <c r="B240" s="20" t="s">
+        <v>197</v>
+      </c>
       <c r="C240" s="13"/>
-      <c r="D240" s="39"/>
+      <c r="D240" s="39">
+        <v>8</v>
+      </c>
       <c r="E240" s="9"/>
       <c r="F240" s="20"/>
       <c r="G240" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H240" s="39"/>
+      <c r="H240" s="39">
+        <v>1</v>
+      </c>
       <c r="I240" s="9"/>
       <c r="J240" s="11"/>
-      <c r="K240" s="20"/>
-    </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K240" s="20" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="40"/>
       <c r="B241" s="20"/>
       <c r="C241" s="13"/>
@@ -8719,7 +8748,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="40"/>
       <c r="B242" s="20"/>
       <c r="C242" s="13"/>
@@ -8735,7 +8764,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="40"/>
       <c r="B243" s="20"/>
       <c r="C243" s="13"/>
@@ -8751,7 +8780,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="40"/>
       <c r="B244" s="20"/>
       <c r="C244" s="13"/>
@@ -8767,7 +8796,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="40"/>
       <c r="B245" s="15"/>
       <c r="C245" s="41"/>
@@ -8798,10 +8827,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{A046AC86-B92D-4E5A-9D65-BD1BFE5EE18E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -8824,7 +8853,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -8832,21 +8861,21 @@
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="59" t="s">
         <v>33</v>
       </c>
@@ -8859,7 +8888,7 @@
       <c r="K1" s="60"/>
       <c r="L1" s="60"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -8888,7 +8917,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3">
@@ -8914,17 +8943,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -8945,7 +8974,7 @@
       <c r="K6" s="60"/>
       <c r="L6" s="60"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -8972,7 +9001,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -8998,7 +9027,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -9024,7 +9053,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -9050,7 +9079,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -9076,7 +9105,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -9102,7 +9131,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -9128,7 +9157,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -9154,7 +9183,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -9174,7 +9203,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -9194,7 +9223,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -9214,7 +9243,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -9235,7 +9264,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -9256,7 +9285,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -9277,7 +9306,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -9298,7 +9327,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -9319,7 +9348,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -9340,7 +9369,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -9361,7 +9390,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -9382,7 +9411,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -9403,7 +9432,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -9424,7 +9453,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -9445,7 +9474,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -9466,7 +9495,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -9487,7 +9516,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -9508,7 +9537,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -9529,7 +9558,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -9550,7 +9579,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -9571,7 +9600,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -9592,7 +9621,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -9613,7 +9642,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -9634,7 +9663,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -9643,7 +9672,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -9652,7 +9681,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -9661,7 +9690,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -9670,7 +9699,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -9679,7 +9708,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -9688,7 +9717,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -9697,7 +9726,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -9706,7 +9735,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -9715,7 +9744,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -9724,7 +9753,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -9733,7 +9762,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -9742,7 +9771,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -9751,7 +9780,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -9760,7 +9789,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -9769,7 +9798,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -9778,7 +9807,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -9787,7 +9816,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -9796,7 +9825,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -9805,7 +9834,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -9814,7 +9843,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -9823,7 +9852,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -9832,7 +9861,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -9841,7 +9870,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -9850,7 +9879,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -9859,7 +9888,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -9868,7 +9897,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -9877,7 +9906,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -9886,7 +9915,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -9895,7 +9924,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
